--- a/Surat Jalan/AIR/Surat Jalan DX-AIR 4 Koli.xlsx
+++ b/Surat Jalan/AIR/Surat Jalan DX-AIR 4 Koli.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Surat Jalan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Surat Jalan\AIR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED419A3-D051-4B2D-8056-7BF6679D697B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40F21C2-05B3-46D6-B5A5-DD8732449CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>SURAT JALAN</t>
   </si>
@@ -104,13 +104,31 @@
     <t>Koli</t>
   </si>
   <si>
-    <t>250220DX</t>
-  </si>
-  <si>
     <t>279-DX-AIR</t>
   </si>
   <si>
     <t>A0034794  Lampu LED</t>
+  </si>
+  <si>
+    <t>250308DX</t>
+  </si>
+  <si>
+    <t>Sabtu, 08/03/25</t>
+  </si>
+  <si>
+    <t>Revi</t>
+  </si>
+  <si>
+    <t>0898-1292-925</t>
+  </si>
+  <si>
+    <t>PT. Inter Tekno Gradian</t>
+  </si>
+  <si>
+    <t>Kompleks Perkantoran Kebon Jeruk</t>
+  </si>
+  <si>
+    <t>Baru Blok C No. 6, Jakarta Barat</t>
   </si>
 </sst>
 </file>
@@ -832,33 +850,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="2.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="2.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="3.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="1.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1"/>
-    <col min="15" max="15" width="1.85546875" customWidth="1"/>
-    <col min="16" max="16" width="2.42578125" customWidth="1"/>
-    <col min="17" max="17" width="1.140625" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" customWidth="1"/>
+    <col min="10" max="10" width="3.44140625" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="1.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" customWidth="1"/>
+    <col min="15" max="15" width="1.88671875" customWidth="1"/>
+    <col min="16" max="16" width="2.44140625" customWidth="1"/>
+    <col min="17" max="17" width="1.109375" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="23.25">
+    <row r="1" spans="2:16" ht="23.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,7 +886,9 @@
       <c r="L1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="50"/>
+      <c r="M1" s="50" t="s">
+        <v>27</v>
+      </c>
       <c r="N1" s="50"/>
       <c r="O1" s="50"/>
       <c r="P1" s="50"/>
@@ -878,7 +898,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -888,7 +908,9 @@
       <c r="L2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="58"/>
+      <c r="M2" s="58" t="s">
+        <v>28</v>
+      </c>
       <c r="N2" s="59"/>
       <c r="O2" s="59"/>
       <c r="P2" s="59"/>
@@ -898,7 +920,9 @@
         <v>7</v>
       </c>
       <c r="C3" s="60"/>
-      <c r="D3" s="24"/>
+      <c r="D3" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="E3" s="19"/>
       <c r="K3" t="s">
         <v>14</v>
@@ -906,7 +930,9 @@
       <c r="L3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="58"/>
+      <c r="M3" s="58" t="s">
+        <v>29</v>
+      </c>
       <c r="N3" s="59"/>
       <c r="O3" s="59"/>
       <c r="P3" s="59"/>
@@ -914,7 +940,9 @@
     <row r="4" spans="2:16" ht="15.75" customHeight="1">
       <c r="F4" s="16"/>
       <c r="L4" s="17"/>
-      <c r="M4" s="59"/>
+      <c r="M4" s="59" t="s">
+        <v>30</v>
+      </c>
       <c r="N4" s="59"/>
       <c r="O4" s="59"/>
       <c r="P4" s="59"/>
@@ -922,7 +950,9 @@
     <row r="5" spans="2:16" ht="15.75" customHeight="1">
       <c r="F5" s="16"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="43"/>
+      <c r="M5" s="43" t="s">
+        <v>31</v>
+      </c>
       <c r="N5" s="43"/>
       <c r="O5" s="43"/>
       <c r="P5" s="43"/>
@@ -945,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -1003,8 +1033,10 @@
       <c r="N10" s="8"/>
       <c r="O10" s="18"/>
     </row>
-    <row r="11" spans="2:16" ht="15.75">
-      <c r="B11" s="10"/>
+    <row r="11" spans="2:16" ht="15.6">
+      <c r="B11" s="10">
+        <v>1160</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="29">
         <v>4</v>
@@ -1014,19 +1046,17 @@
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="M11" s="10">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="N11" s="56">
-        <v>0.152</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="N11" s="56"/>
       <c r="O11" s="57"/>
     </row>
-    <row r="12" spans="2:16" ht="15.75">
+    <row r="12" spans="2:16" ht="15.6">
       <c r="B12" s="10"/>
       <c r="C12" s="13"/>
       <c r="D12" s="29"/>
@@ -1039,7 +1069,7 @@
       <c r="N12" s="56"/>
       <c r="O12" s="57"/>
     </row>
-    <row r="13" spans="2:16" ht="15.75">
+    <row r="13" spans="2:16" ht="15.6">
       <c r="B13" s="10"/>
       <c r="C13" s="13"/>
       <c r="D13" s="29"/>
@@ -1114,7 +1144,7 @@
       <c r="M17" s="27"/>
       <c r="N17" s="37">
         <f>SUM(N11:O14)</f>
-        <v>0.152</v>
+        <v>0</v>
       </c>
       <c r="O17" s="4"/>
     </row>
@@ -1183,7 +1213,7 @@
       <c r="F26" s="51"/>
       <c r="M26" s="23"/>
     </row>
-    <row r="27" spans="2:16" ht="36.75" customHeight="1">
+    <row r="27" spans="2:16" ht="16.2" customHeight="1">
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
@@ -1198,7 +1228,7 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="2:16" ht="23.25">
+    <row r="29" spans="2:16" ht="23.4">
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1240,7 @@
       </c>
       <c r="M29" s="50" t="str">
         <f t="shared" ref="M29:M35" si="0">IF(ISBLANK(M1),"",M1)</f>
-        <v/>
+        <v>Revi</v>
       </c>
       <c r="N29" s="50"/>
       <c r="O29" s="50"/>
@@ -1222,7 +1252,7 @@
       </c>
       <c r="C30" s="15" t="str">
         <f>IF(ISBLANK(C2),"",C2)</f>
-        <v>250220DX</v>
+        <v>250308DX</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
@@ -1234,7 +1264,7 @@
       </c>
       <c r="M30" s="50" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0898-1292-925</v>
       </c>
       <c r="N30" s="50"/>
       <c r="O30" s="50"/>
@@ -1247,7 +1277,7 @@
       <c r="C31" s="60"/>
       <c r="D31" s="49" t="str">
         <f>IF(ISBLANK(D3),"",D3)</f>
-        <v/>
+        <v>Sabtu, 08/03/25</v>
       </c>
       <c r="E31" s="19"/>
       <c r="K31" t="s">
@@ -1258,7 +1288,7 @@
       </c>
       <c r="M31" s="50" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>PT. Inter Tekno Gradian</v>
       </c>
       <c r="N31" s="50"/>
       <c r="O31" s="50"/>
@@ -1270,7 +1300,7 @@
       <c r="L32" s="17"/>
       <c r="M32" s="50" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Kompleks Perkantoran Kebon Jeruk</v>
       </c>
       <c r="N32" s="50"/>
       <c r="O32" s="50"/>
@@ -1281,7 +1311,7 @@
       <c r="L33" s="17"/>
       <c r="M33" s="50" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Baru Blok C No. 6, Jakarta Barat</v>
       </c>
       <c r="N33" s="50"/>
       <c r="O33" s="50"/>
@@ -1375,10 +1405,10 @@
       <c r="N38" s="8"/>
       <c r="O38" s="18"/>
     </row>
-    <row r="39" spans="2:16" ht="15.75">
-      <c r="B39" s="10" t="str">
+    <row r="39" spans="2:16" ht="15.6">
+      <c r="B39" s="10">
         <f>IF(ISBLANK(B11),"",B11)</f>
-        <v/>
+        <v>1160</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="29">
@@ -1397,15 +1427,15 @@
       <c r="I39" s="29"/>
       <c r="M39" s="10">
         <f>IF(ISBLANK(M11),"",M11)</f>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="N39" s="56">
+        <v>41</v>
+      </c>
+      <c r="N39" s="56" t="str">
         <f>IF(ISBLANK(N11),"",N11)</f>
-        <v>0.152</v>
+        <v/>
       </c>
       <c r="O39" s="57"/>
     </row>
-    <row r="40" spans="2:16" ht="15.75">
+    <row r="40" spans="2:16" ht="15.6">
       <c r="B40" s="10" t="str">
         <f>IF(ISBLANK(B12),"",B12)</f>
         <v/>
@@ -1433,7 +1463,7 @@
       </c>
       <c r="O40" s="57"/>
     </row>
-    <row r="41" spans="2:16" ht="15.75">
+    <row r="41" spans="2:16" ht="15.6">
       <c r="B41" s="10" t="str">
         <f t="shared" ref="B41:B43" si="2">IF(ISBLANK(B13),"",B13)</f>
         <v/>
@@ -1554,7 +1584,7 @@
       <c r="M45" s="27"/>
       <c r="N45" s="37">
         <f>IF(ISBLANK(N17),"",N17)</f>
-        <v>0.152</v>
+        <v>0</v>
       </c>
       <c r="O45" s="4"/>
     </row>
@@ -1659,6 +1689,6 @@
     <mergeCell ref="N41:O41"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>